--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5061203E-3566-428C-A363-A9B3BB1073CB}"/>
+  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8CD0C348-6F5C-4945-BE19-A4FF23AD1E5B}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="2205" windowWidth="22965" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <t xml:space="preserve">天弘中证食品饮料指数C </t>
   </si>
   <si>
-    <t>160517</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>161725</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>004889</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>009331</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,19 +98,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>财通资管鑫逸混合C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华宝中证消费龙头指数（LOF）C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>招商中证白酒指数（LOF）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博时中证银行指数（LOF）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -465,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,58 +472,58 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -547,42 +531,29 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
+    <sortCondition ref="B1:B11"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="150" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8CD0C348-6F5C-4945-BE19-A4FF23AD1E5B}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B163139-373B-40F0-A999-971A5A97A831}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="750" yWindow="2265" windowWidth="16620" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,73 +35,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001632</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">天弘中证食品饮料指数C </t>
-  </si>
-  <si>
     <t>161725</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>006229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中欧医疗创新股票C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009329</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009331</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001508</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002472</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000083</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009860</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010364</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>汇添富消费行业混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大先进服务业混合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国新动力A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华成长价值混合C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝中证消费龙头指数（LOF）C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>招商中证白酒指数（LOF）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,7 +51,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>易方达中证银行指数（LOC）C</t>
+    <t>009300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007539</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160424</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004746</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深证100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上证50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰新能源汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华军工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +125,33 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="唐美人 常规体"/>
+      <family val="5"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="唐美人 常规体"/>
+      <family val="5"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="唐美人 常规体"/>
+      <family val="5"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="唐美人 常规体"/>
       <family val="5"/>
       <charset val="134"/>
@@ -161,12 +177,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,87 +501,79 @@
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
-    <sortCondition ref="B1:B11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
+    <sortCondition ref="B1:B3"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2B163139-373B-40F0-A999-971A5A97A831}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B99840A9-28EE-4BB5-AD83-F440544F041E}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="2265" windowWidth="16620" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,14 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招商中证白酒指数（LOF）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华中证空天一体军工指数（LOC）C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>009300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +92,14 @@
   </si>
   <si>
     <t>鹏华军工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商中证白酒指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华中证空天一体军工指数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +481,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,19 +500,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
@@ -540,7 +540,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -549,22 +549,22 @@
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:2" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -572,9 +572,6 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B3">
-    <sortCondition ref="B1:B3"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B99840A9-28EE-4BB5-AD83-F440544F041E}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9B00E78F-2C5F-48C0-B1C6-3979D3FF4B33}"/>
   <bookViews>
     <workbookView xWindow="750" yWindow="2265" windowWidth="16620" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>招商中证白酒指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华中证空天一体军工指数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,20 +126,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="唐美人 常规体"/>
-      <family val="5"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="唐美人 常规体"/>
@@ -155,6 +137,18 @@
       <name val="唐美人 常规体"/>
       <family val="5"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="唐美人 常规体"/>
+      <family val="5"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,27 +171,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -478,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -500,7 +491,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -508,7 +499,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -516,7 +507,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -524,7 +515,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -532,7 +523,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -540,7 +531,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -548,27 +539,19 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9B00E78F-2C5F-48C0-B1C6-3979D3FF4B33}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6192B00-F600-4EDE-932E-7E50405E7715}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2265" windowWidth="16620" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,50 @@
   </si>
   <si>
     <t>招商中证白酒指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009329</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝消费龙头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中欧医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏半导体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博时银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001632</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘食品饮料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,20 +513,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -498,7 +542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -506,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -514,7 +558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -522,7 +566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -530,7 +574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -538,7 +582,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -546,12 +590,60 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" s="6" customFormat="1" ht="17.25">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25">
+      <c r="A10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17.25">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17.25">
+      <c r="A14" s="4">
+        <v>160517</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17.25">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6192B00-F600-4EDE-932E-7E50405E7715}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B4D48A-F58B-4FCB-B4F1-63B521B032D5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="1695" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,30 @@
   </si>
   <si>
     <t>天弘食品饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010770</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001551</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011041</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘国证生物医药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证医药100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -646,6 +670,30 @@
         <v>25</v>
       </c>
     </row>
+    <row r="16" spans="1:2" ht="17.25">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17.25">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5B4D48A-F58B-4FCB-B4F1-63B521B032D5}"/>
+  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7C061BA-5CAF-45EE-81DE-9405FF07E317}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1695" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>161725</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010364</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,26 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中证500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沪深300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创业50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深证100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上证50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国泰新能源汽车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>招商中证白酒指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>009329</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>011041</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,7 +131,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天弘中证医药100</t>
+    <t>011609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达科创50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安沪深300量化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010956</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘智能汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘光伏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010954</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘国证A50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏华信息技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达一带一路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002984</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009881</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发医疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部利得中证500量化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达上证50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永赢沪深300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安创业50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发深证100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -559,11 +623,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="4">
+        <v>160517</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
@@ -571,130 +635,197 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+      <c r="A5" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
+      <c r="A7" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" ht="17.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25">
+    </row>
+    <row r="11" spans="1:2" s="6" customFormat="1" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="4" t="s">
-        <v>22</v>
+      <c r="A12" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
-      <c r="A14" s="4">
-        <v>160517</v>
+      <c r="A14" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
+      <c r="A15" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25">
       <c r="A18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17.25">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17.25">
+      <c r="A21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="22" spans="1:2" ht="17.25">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17.25">
+      <c r="A23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17.25">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17.25">
+      <c r="A25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17.25">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
+    <sortCondition ref="B1:B26"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="238" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7C061BA-5CAF-45EE-81DE-9405FF07E317}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60037A1B-8422-4CB4-907F-E94017D3E8FA}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1695" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>009068</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国泰新能源汽车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鹏华军工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,14 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>009881</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西部利得中证500量化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,6 +212,14 @@
   </si>
   <si>
     <t>广发深证100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国泰家电</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -627,7 +619,7 @@
         <v>160517</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
@@ -635,103 +627,103 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="2" t="s">
-        <v>28</v>
+      <c r="A8" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="6" customFormat="1" ht="17.25">
       <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" ht="17.25">
-      <c r="A11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17.25">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
+      <c r="A12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
+      <c r="A13" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
+      <c r="A15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
@@ -744,87 +736,79 @@
     </row>
     <row r="17" spans="1:2" ht="17.25">
       <c r="A17" s="4" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25">
       <c r="A18" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25">
-      <c r="A21" s="4" t="s">
-        <v>32</v>
+      <c r="A21" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
+      <c r="A22" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25">
       <c r="A24" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17.25">
-      <c r="A25" s="4" t="s">
-        <v>13</v>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25">
-      <c r="A26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B26">
-    <sortCondition ref="B1:B26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
+    <sortCondition ref="B1:B25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60037A1B-8422-4CB4-907F-E94017D3E8FA}"/>
+  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C31FCE8C-DBC3-4609-B71C-9A8A5069811E}"/>
   <bookViews>
     <workbookView xWindow="1185" yWindow="1695" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>007539</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>160424</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>博时银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>001632</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,14 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010954</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘国证A50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>012040</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,10 +184,6 @@
   </si>
   <si>
     <t>易方达上证50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永赢沪深300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -593,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -615,200 +595,176 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25">
-      <c r="A2" s="4">
-        <v>160517</v>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
-      <c r="A4" s="4" t="s">
-        <v>40</v>
+      <c r="A4" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
+      <c r="A5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="6" customFormat="1" ht="17.25">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
+      <c r="A9" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" ht="17.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
+      <c r="A12" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
+      <c r="A13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
+      <c r="A14" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="4" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25">
       <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17.25">
+      <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25">
       <c r="A19" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
+      <c r="A21" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25">
-      <c r="A23" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25">
-      <c r="A24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
-    <sortCondition ref="B1:B25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
+    <sortCondition ref="B1:B22"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C31FCE8C-DBC3-4609-B71C-9A8A5069811E}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F82BDCF-9FEB-48A7-B64F-AF7FBEDFFAEA}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1695" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,14 +104,6 @@
   </si>
   <si>
     <t>天弘农业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011041</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘国证生物医药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -573,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -599,31 +591,31 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
       <c r="A3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
@@ -644,10 +636,10 @@
     </row>
     <row r="8" spans="1:2" s="6" customFormat="1" ht="17.25">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
@@ -660,10 +652,10 @@
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
@@ -671,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
@@ -679,92 +671,84 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
+      <c r="A17" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
+      <c r="A18" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17.25">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17.25">
       <c r="A20" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17.25">
-      <c r="A21" s="4" t="s">
-        <v>10</v>
+      <c r="A21" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25">
-      <c r="A22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B22">
-    <sortCondition ref="B1:B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
+    <sortCondition ref="B1:B21"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Python\Github\DailyTools\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{35D48A97-1311-4918-9511-4B8794B80088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F82BDCF-9FEB-48A7-B64F-AF7FBEDFFAEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,14 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010956</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘智能汽车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>011103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,30 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>012040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华信息技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>007789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达一带一路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002984</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发环保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西部利得中证500量化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,6 +160,14 @@
   </si>
   <si>
     <t>国泰家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011513</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘新能源汽车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -591,164 +567,140 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
-      <c r="A3" s="4" t="s">
-        <v>34</v>
+      <c r="A3" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
-      <c r="A4" s="3" t="s">
-        <v>40</v>
+      <c r="A4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
+      <c r="A5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="6" customFormat="1" ht="17.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" ht="17.25">
-      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
-      <c r="A10" s="4" t="s">
-        <v>30</v>
+      <c r="A10" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
-      <c r="A11" s="2" t="s">
-        <v>6</v>
+      <c r="A11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
+      <c r="A12" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25">
-      <c r="A15" s="4" t="s">
-        <v>16</v>
+      <c r="A15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17.25">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
+      <c r="A17" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17.25">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
+      <c r="A18" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25">
-      <c r="A20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25">
-      <c r="A21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21">
-    <sortCondition ref="B1:B21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Python\Github\DailyTools\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74420170-7781-46E7-993E-604FDE4B9180}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,14 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>008888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏半导体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>001632</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,14 +120,6 @@
   </si>
   <si>
     <t>012043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘光伏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -541,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -567,23 +551,23 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
@@ -594,113 +578,97 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25">
+    <row r="6" spans="1:2" s="6" customFormat="1" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" ht="17.25">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
-      <c r="A10" s="2" t="s">
-        <v>5</v>
+      <c r="A10" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25">
+      <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
       <c r="A14" s="4" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
+      <c r="A15" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17.25">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
+      <c r="A16" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25">
-      <c r="A17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
-    <sortCondition ref="B1:B18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B16">
+    <sortCondition ref="B1:B16"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74420170-7781-46E7-993E-604FDE4B9180}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{432B39F5-BC91-4FC8-99FD-61EBC3A9D6BC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="525" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>010364</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>009300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>鹏华军工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>009329</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,14 +88,6 @@
   </si>
   <si>
     <t>天弘农业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011609</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达科创50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -525,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -548,127 +532,111 @@
     </row>
     <row r="2" spans="1:2" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
+      <c r="A9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="4" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
+      <c r="A13" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
+      <c r="A14" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25">
-      <c r="A15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25">
-      <c r="A16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B16">
-    <sortCondition ref="B1:B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
+    <sortCondition ref="B1:B14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{432B39F5-BC91-4FC8-99FD-61EBC3A9D6BC}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52722C62-F554-4B5F-9F17-1C0434BB04CA}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="525" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,14 +128,6 @@
   </si>
   <si>
     <t>国泰家电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011513</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘新能源汽车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -604,39 +596,31 @@
     </row>
     <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
+      <c r="A13" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
-    <sortCondition ref="B1:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+    <sortCondition ref="B1:B13"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52722C62-F554-4B5F-9F17-1C0434BB04CA}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E0FD7D-C05D-49BA-930A-434CC5674F54}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2280" windowWidth="22515" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>009300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>160424</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,10 +100,6 @@
   </si>
   <si>
     <t>012043</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西部利得中证500量化</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -501,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -524,103 +516,95 @@
     </row>
     <row r="2" spans="1:2" ht="17.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
       <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="6" customFormat="1" ht="17.25">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
-    <sortCondition ref="B1:B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
+    <sortCondition ref="B1:B12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3E0FD7D-C05D-49BA-930A-434CC5674F54}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D175060-8816-4873-B301-DDFF02B80648}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,22 @@
   </si>
   <si>
     <t>国泰家电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富国军工</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -546,65 +562,81 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" ht="17.25">
+    <row r="6" spans="1:2" ht="17.25">
       <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="6" customFormat="1" ht="17.25">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17.25">
       <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25">
+      <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
       <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17.25">
+      <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="17.25">
+      <c r="A14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
-    <sortCondition ref="B1:B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
+    <sortCondition ref="B1:B13"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D175060-8816-4873-B301-DDFF02B80648}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3121468B-A1EB-4E31-B298-FB1C77B21572}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>富国军工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部利得中证500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -191,12 +199,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -211,15 +225,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -229,6 +240,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -509,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -539,104 +559,112 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17.25">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:2" ht="17.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:2" ht="17.25">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" ht="17.25">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:2" s="5" customFormat="1" ht="17.25">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
       <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17.25">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.25">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:2" ht="17.25">
+      <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.25">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:2" ht="17.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:2" ht="17.25">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.25">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:2" ht="17.25">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:2" ht="17.25">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
-    <sortCondition ref="B1:B13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
+    <sortCondition ref="B1:B14"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3121468B-A1EB-4E31-B298-FB1C77B21572}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68449DDD-27D7-4C8E-A6A3-2070DCB9203E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,9 +236,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,6 +244,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,7 +535,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -559,10 +562,10 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -583,10 +586,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -598,27 +601,27 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" ht="17.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" s="4" customFormat="1" ht="17.25">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -631,10 +634,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -647,10 +650,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="17.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68449DDD-27D7-4C8E-A6A3-2070DCB9203E}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E198D2-8402-4811-9C04-31C8D7895E08}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,14 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001632</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘食品饮料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010770</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,14 +84,6 @@
   </si>
   <si>
     <t>华安沪深300量化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏华酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012043</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,12 +176,6 @@
       <family val="5"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -225,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,7 +214,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -244,9 +221,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -532,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -558,116 +532,100 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
-      <c r="A3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" ht="17.25">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17.25">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" ht="17.25">
-      <c r="A10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
+      <c r="A12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17.25">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
-    <sortCondition ref="B1:B14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
+    <sortCondition ref="B1:B12"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3E198D2-8402-4811-9C04-31C8D7895E08}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F55B8B-4345-4F92-BB1A-865CD553D724}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,6 +128,14 @@
   </si>
   <si>
     <t>西部利得中证500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘光伏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -623,6 +631,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:2" ht="17.25">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
     <sortCondition ref="B1:B12"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -1,160 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d36e0f13e42edba3/Python/Github/DailyTools/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{FABF60F3-B7BC-4E87-9BB4-42765E4274D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09F55B8B-4345-4F92-BB1A-865CD553D724}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>160424</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华安创业50</t>
+  </si>
+  <si>
+    <t>014533</t>
+  </si>
+  <si>
+    <t>易方达MSCI中国A50</t>
+  </si>
+  <si>
+    <t>009300</t>
+  </si>
+  <si>
+    <t>西部利得中证500</t>
+  </si>
+  <si>
+    <t>000313</t>
+  </si>
+  <si>
+    <t>华安沪深300量化</t>
+  </si>
+  <si>
+    <t>009329</t>
+  </si>
+  <si>
+    <t>华宝消费龙头</t>
+  </si>
+  <si>
+    <t>012414</t>
+  </si>
+  <si>
+    <t>招商酒</t>
+  </si>
+  <si>
+    <t>004746</t>
+  </si>
+  <si>
+    <t>易方达上证50</t>
   </si>
   <si>
     <t>009472</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>004746</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009329</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华宝消费龙头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发深证100</t>
+  </si>
+  <si>
+    <t>010770</t>
+  </si>
+  <si>
+    <t>天弘农业</t>
+  </si>
+  <si>
+    <t>009860</t>
+  </si>
+  <si>
+    <t>易方达银行</t>
   </si>
   <si>
     <t>006229</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>中欧医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009860</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010770</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘农业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>000313</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安沪深300量化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>易方达上证50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华安创业50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发深证100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011113</t>
+  </si>
+  <si>
+    <t>富国军工</t>
+  </si>
+  <si>
+    <t>011103</t>
+  </si>
+  <si>
+    <t>天弘光伏</t>
   </si>
   <si>
     <t>008714</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国泰家电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>012414</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商酒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011113</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>富国军工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>009300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西部利得中证500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天弘光伏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -162,30 +128,176 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="唐美人 常规体"/>
-      <family val="5"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="唐美人 常规体"/>
-      <family val="5"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="唐美人 常规体"/>
-      <family val="5"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="唐美人 常规体"/>
-      <family val="5"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +310,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -207,45 +505,337 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -294,7 +884,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -329,7 +919,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -503,31 +1093,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="38.125" customWidth="1"/>
     <col min="3" max="3" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25">
+    <row r="1" ht="17.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,116 +1120,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:2">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:2">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25">
-      <c r="A3" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.25">
-      <c r="A4" s="2" t="s">
+    <row r="11" ht="17.25" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:2">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
-      <c r="A8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25">
-      <c r="A9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" ht="17.25" spans="1:2">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
+    <row r="15" ht="17.25" spans="1:2">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B12">
+  <sortState ref="A2:B12">
     <sortCondition ref="B1:B12"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>华安创业50</t>
-  </si>
-  <si>
-    <t>014533</t>
-  </si>
-  <si>
-    <t>易方达MSCI中国A50</t>
   </si>
   <si>
     <t>009300</t>
@@ -112,8 +106,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -137,29 +131,91 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="唐美人 常规体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="唐美人 常规体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="唐美人 常规体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -183,24 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +249,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,77 +277,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +500,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -513,6 +546,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,223 +592,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -759,25 +753,19 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1099,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1129,10 +1117,10 @@
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1145,10 +1133,10 @@
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1156,47 +1144,47 @@
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1204,12 +1192,12 @@
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1220,16 +1208,8 @@
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="17.25" spans="1:2">
-      <c r="A15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>华安沪深300量化</t>
+  </si>
+  <si>
+    <t>014530</t>
+  </si>
+  <si>
+    <t>华夏MSCI中国A50</t>
   </si>
   <si>
     <t>009329</t>
@@ -106,8 +112,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -142,59 +148,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,15 +176,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,29 +267,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,13 +289,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -306,25 +312,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +444,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,145 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,6 +503,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -515,11 +554,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,190 +603,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,10 +1093,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1133,26 +1139,26 @@
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1165,7 +1171,7 @@
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1189,10 +1195,10 @@
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1205,11 +1211,19 @@
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:2">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>华安沪深300量化</t>
-  </si>
-  <si>
-    <t>014530</t>
-  </si>
-  <si>
-    <t>华夏MSCI中国A50</t>
   </si>
   <si>
     <t>009329</t>
@@ -111,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -149,19 +143,103 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,6 +253,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -183,12 +269,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -198,100 +285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,55 +306,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,127 +480,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,8 +503,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,60 +589,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -594,160 +597,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1093,10 +1087,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1139,26 +1133,26 @@
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1171,7 +1165,7 @@
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1195,10 +1189,10 @@
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1211,19 +1205,11 @@
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="17.25" spans="1:2">
-      <c r="A15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="12435"/>
+    <workbookView windowWidth="23430" windowHeight="10905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,12 +105,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +119,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="唐美人 常规体"/>
@@ -132,16 +133,22 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
       <name val="唐美人 常规体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="唐美人 常规体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="唐美人 常规体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -149,14 +156,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,10 +192,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,9 +206,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,38 +224,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,8 +268,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,24 +297,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,31 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,162 +499,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -500,11 +519,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +554,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,21 +598,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -572,17 +612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,172 +634,181 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,7 +1133,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1112,7 +1155,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1120,7 +1163,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1128,87 +1171,87 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
     </row>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>国泰家电</t>
+  </si>
+  <si>
+    <t>002001</t>
+  </si>
+  <si>
+    <t>华夏回报</t>
   </si>
 </sst>
 </file>
@@ -105,12 +111,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,8 +156,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -162,6 +180,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -177,8 +217,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +241,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -200,58 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -262,7 +266,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +274,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -277,15 +296,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,13 +336,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,13 +390,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,19 +450,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,13 +492,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,109 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +546,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -545,15 +571,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,7 +594,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,21 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -620,166 +642,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,6 +820,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1130,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1255,6 +1272,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" ht="16.5" spans="1:2">
+      <c r="A15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B12">
     <sortCondition ref="B1:B12"/>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23430" windowHeight="10905"/>
+    <workbookView windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>富国军工</t>
-  </si>
-  <si>
-    <t>011103</t>
-  </si>
-  <si>
-    <t>天弘光伏</t>
   </si>
   <si>
     <t>008714</t>
@@ -112,11 +106,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,29 +122,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="唐美人 常规体"/>
+      <name val="真凝书"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="唐美人 常规体"/>
+      <name val="真凝书"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="唐美人 常规体"/>
+      <name val="真凝书"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="唐美人 常规体"/>
+      <name val="真凝书"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="唐美人 常规体"/>
+      <name val="真凝书"/>
       <charset val="134"/>
     </font>
     <font>
@@ -161,75 +155,85 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,31 +245,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -280,16 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,15 +297,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,7 +319,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,181 +343,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,21 +524,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,13 +576,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,16 +614,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,137 +643,137 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -813,19 +796,13 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,10 +1124,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1160,7 +1137,7 @@
     <col min="3" max="3" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:2">
+    <row r="1" ht="15.75" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:2">
+    <row r="2" ht="15.75" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1176,7 +1153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:2">
+    <row r="3" ht="15.75" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:2">
+    <row r="4" ht="15.75" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:2">
+    <row r="5" ht="15.75" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="17.25" spans="1:2">
+    <row r="6" ht="15.75" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1208,7 +1185,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:2">
+    <row r="7" ht="15.75" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1216,7 +1193,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:2">
+    <row r="8" ht="15.75" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1224,7 +1201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:2">
+    <row r="9" ht="15.75" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1232,7 +1209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="17.25" spans="1:2">
+    <row r="10" ht="15.75" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1240,7 +1217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:2">
+    <row r="11" ht="15.75" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1248,7 +1225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:2">
+    <row r="12" ht="15.75" spans="1:2">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1256,28 +1233,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="17.25" spans="1:2">
+    <row r="13" ht="15.75" spans="1:2">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:2">
-      <c r="A14" s="10" t="s">
+    <row r="14" ht="15" spans="1:2">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:2">
-      <c r="A15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>华夏回报</t>
+  </si>
+  <si>
+    <t>天弘周期策略混合</t>
   </si>
 </sst>
 </file>
@@ -110,7 +113,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,32 +122,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="真凝书"/>
+      <name val="钉钉进步体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="真凝书"/>
+      <name val="钉钉进步体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="真凝书"/>
+      <sz val="11"/>
+      <name val="钉钉进步体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="真凝书"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="真凝书"/>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="钉钉进步体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -628,48 +625,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,97 +679,94 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -781,28 +778,28 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -858,6 +855,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1124,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1145,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:2">
+    <row r="2" ht="15" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1153,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:2">
+    <row r="3" ht="15" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:2">
+    <row r="4" ht="15" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="15.75" spans="1:2">
+    <row r="5" ht="15" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="1:2">
+    <row r="6" ht="15" spans="1:2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="15.75" spans="1:2">
+    <row r="7" ht="15" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="15.75" spans="1:2">
+    <row r="8" ht="15" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:2">
+    <row r="9" ht="15" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="15.75" spans="1:2">
+    <row r="10" ht="15" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="15.75" spans="1:2">
+    <row r="11" ht="15" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="15.75" spans="1:2">
+    <row r="12" ht="15" spans="1:2">
       <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
@@ -1233,8 +1235,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="15.75" spans="1:2">
-      <c r="A13" s="8" t="s">
+    <row r="13" ht="15" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1242,11 +1244,19 @@
       </c>
     </row>
     <row r="14" ht="15" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:2">
+      <c r="A15" s="9">
+        <v>420005</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data/ZFB_FundList.xlsx
+++ b/data/ZFB_FundList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t>华夏回报</t>
-  </si>
-  <si>
-    <t>天弘周期策略混合</t>
   </si>
 </sst>
 </file>
@@ -113,7 +110,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,12 +132,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="钉钉进步体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF212529"/>
       <name val="钉钉进步体"/>
       <charset val="134"/>
     </font>
@@ -625,48 +616,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,101 +670,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -794,12 +785,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1126,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -1251,14 +1236,6 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:2">
-      <c r="A15" s="9">
-        <v>420005</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <sortState ref="A2:B12">
     <sortCondition ref="B1:B12"/>
